--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1007803333333333</v>
+        <v>1.766742</v>
       </c>
       <c r="N2">
-        <v>0.302341</v>
+        <v>5.300226</v>
       </c>
       <c r="O2">
-        <v>0.0002403678834108731</v>
+        <v>0.003552148420501175</v>
       </c>
       <c r="P2">
-        <v>0.0002403678834108732</v>
+        <v>0.003552148420501176</v>
       </c>
       <c r="Q2">
-        <v>0.06339492806688889</v>
+        <v>3.281124339462</v>
       </c>
       <c r="R2">
-        <v>0.5705543526019999</v>
+        <v>29.530119055158</v>
       </c>
       <c r="S2">
-        <v>5.81165425091744E-07</v>
+        <v>2.370431068569943E-05</v>
       </c>
       <c r="T2">
-        <v>5.811654250917441E-07</v>
+        <v>2.370431068569943E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03723833333333334</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N3">
         <v>0.111715</v>
       </c>
       <c r="O3">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146863E-05</v>
       </c>
       <c r="P3">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146865E-05</v>
       </c>
       <c r="Q3">
-        <v>0.02342442602555556</v>
+        <v>0.06915758037166668</v>
       </c>
       <c r="R3">
-        <v>0.21081983423</v>
+        <v>0.6224182233450001</v>
       </c>
       <c r="S3">
-        <v>2.147406255325087E-07</v>
+        <v>4.99625311874043E-07</v>
       </c>
       <c r="T3">
-        <v>2.147406255325087E-07</v>
+        <v>4.996253118740431E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>179.0399246666667</v>
+        <v>153.7488963333334</v>
       </c>
       <c r="N4">
-        <v>537.119774</v>
+        <v>461.2466890000001</v>
       </c>
       <c r="O4">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="P4">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="Q4">
-        <v>112.6233935722698</v>
+        <v>285.5364540633097</v>
       </c>
       <c r="R4">
-        <v>1013.610542150428</v>
+        <v>2569.828086569788</v>
       </c>
       <c r="S4">
-        <v>0.001032461498049856</v>
+        <v>0.002062843135142951</v>
       </c>
       <c r="T4">
-        <v>0.001032461498049856</v>
+        <v>0.002062843135142951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2716173333333334</v>
+        <v>0.09092633333333333</v>
       </c>
       <c r="N5">
-        <v>0.8148520000000001</v>
+        <v>0.272779</v>
       </c>
       <c r="O5">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="P5">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="Q5">
-        <v>0.1708583484382223</v>
+        <v>0.1688648401396667</v>
       </c>
       <c r="R5">
-        <v>1.537725135944</v>
+        <v>1.519783561257</v>
       </c>
       <c r="S5">
-        <v>1.566323485623379E-06</v>
+        <v>1.219955180125226E-06</v>
       </c>
       <c r="T5">
-        <v>1.566323485623379E-06</v>
+        <v>1.219955180125226E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.049056</v>
+        <v>45.362591</v>
       </c>
       <c r="N6">
-        <v>147.147168</v>
+        <v>136.087773</v>
       </c>
       <c r="O6">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="P6">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="Q6">
-        <v>30.85385088561067</v>
+        <v>84.24563486415101</v>
       </c>
       <c r="R6">
-        <v>277.684657970496</v>
+        <v>758.210713777359</v>
       </c>
       <c r="S6">
-        <v>0.0002828489898550521</v>
+        <v>0.0006086281701416013</v>
       </c>
       <c r="T6">
-        <v>0.0002828489898550521</v>
+        <v>0.0006086281701416013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H7">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>190.7767536666667</v>
+        <v>296.3664043333334</v>
       </c>
       <c r="N7">
-        <v>572.3302610000001</v>
+        <v>889.0992130000001</v>
       </c>
       <c r="O7">
-        <v>0.455015407928672</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="P7">
-        <v>0.4550154079286721</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="Q7">
-        <v>120.0063363109825</v>
+        <v>550.4001278380979</v>
       </c>
       <c r="R7">
-        <v>1080.057026798842</v>
+        <v>4953.60115054288</v>
       </c>
       <c r="S7">
-        <v>0.001100143743081269</v>
+        <v>0.003976336853440374</v>
       </c>
       <c r="T7">
-        <v>0.001100143743081269</v>
+        <v>0.003976336853440374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1007803333333333</v>
+        <v>1.766742</v>
       </c>
       <c r="N8">
-        <v>0.302341</v>
+        <v>5.300226</v>
       </c>
       <c r="O8">
-        <v>0.0002403678834108731</v>
+        <v>0.003552148420501175</v>
       </c>
       <c r="P8">
-        <v>0.0002403678834108732</v>
+        <v>0.003552148420501176</v>
       </c>
       <c r="Q8">
-        <v>8.352553526981444</v>
+        <v>146.425464525482</v>
       </c>
       <c r="R8">
-        <v>75.17298174283299</v>
+        <v>1317.829180729338</v>
       </c>
       <c r="S8">
-        <v>7.657103602969572E-05</v>
+        <v>0.001057843088012631</v>
       </c>
       <c r="T8">
-        <v>7.657103602969574E-05</v>
+        <v>0.001057843088012631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,16 +995,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03723833333333334</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N9">
         <v>0.111715</v>
       </c>
       <c r="O9">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146863E-05</v>
       </c>
       <c r="P9">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146865E-05</v>
       </c>
       <c r="Q9">
         <v>3.086268542032778</v>
@@ -1013,10 +1013,10 @@
         <v>27.776416878295</v>
       </c>
       <c r="S9">
-        <v>2.829299793960283E-05</v>
+        <v>2.229658519793892E-05</v>
       </c>
       <c r="T9">
-        <v>2.829299793960283E-05</v>
+        <v>2.229658519793893E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>179.0399246666667</v>
+        <v>153.7488963333334</v>
       </c>
       <c r="N10">
-        <v>537.119774</v>
+        <v>461.2466890000001</v>
       </c>
       <c r="O10">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="P10">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="Q10">
-        <v>14838.61488430341</v>
+        <v>12742.52469567629</v>
       </c>
       <c r="R10">
-        <v>133547.5339587307</v>
+        <v>114682.7222610866</v>
       </c>
       <c r="S10">
-        <v>0.1360312282066145</v>
+        <v>0.09205770128054193</v>
       </c>
       <c r="T10">
-        <v>0.1360312282066145</v>
+        <v>0.09205770128054193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2716173333333334</v>
+        <v>0.09092633333333333</v>
       </c>
       <c r="N11">
-        <v>0.8148520000000001</v>
+        <v>0.272779</v>
       </c>
       <c r="O11">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="P11">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="Q11">
-        <v>22.51131982287512</v>
+        <v>7.535865789080778</v>
       </c>
       <c r="R11">
-        <v>202.6018784058761</v>
+        <v>67.822792101727</v>
       </c>
       <c r="S11">
-        <v>0.0002063698335682876</v>
+        <v>5.444246711460934E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002063698335682876</v>
+        <v>5.444246711460935E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.049056</v>
+        <v>45.362591</v>
       </c>
       <c r="N12">
-        <v>147.147168</v>
+        <v>136.087773</v>
       </c>
       <c r="O12">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="P12">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="Q12">
-        <v>4065.12711495871</v>
+        <v>3759.597303542028</v>
       </c>
       <c r="R12">
-        <v>36586.14403462839</v>
+        <v>33836.37573187825</v>
       </c>
       <c r="S12">
-        <v>0.03726656689828932</v>
+        <v>0.02716101351736358</v>
       </c>
       <c r="T12">
-        <v>0.03726656689828933</v>
+        <v>0.02716101351736358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>190.7767536666667</v>
+        <v>296.3664043333334</v>
       </c>
       <c r="N13">
-        <v>572.3302610000001</v>
+        <v>889.0992130000001</v>
       </c>
       <c r="O13">
-        <v>0.455015407928672</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="P13">
-        <v>0.4550154079286721</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="Q13">
-        <v>15811.3492384882</v>
+        <v>24562.49323571589</v>
       </c>
       <c r="R13">
-        <v>142302.1431463938</v>
+        <v>221062.439121443</v>
       </c>
       <c r="S13">
-        <v>0.1449486541220548</v>
+        <v>0.1774504440055047</v>
       </c>
       <c r="T13">
-        <v>0.1449486541220548</v>
+        <v>0.1774504440055047</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1007803333333333</v>
+        <v>1.766742</v>
       </c>
       <c r="N14">
-        <v>0.302341</v>
+        <v>5.300226</v>
       </c>
       <c r="O14">
-        <v>0.0002403678834108731</v>
+        <v>0.003552148420501175</v>
       </c>
       <c r="P14">
-        <v>0.0002403678834108732</v>
+        <v>0.003552148420501176</v>
       </c>
       <c r="Q14">
-        <v>4.134062619723111</v>
+        <v>105.576165157304</v>
       </c>
       <c r="R14">
-        <v>37.206563577508</v>
+        <v>950.1854864157361</v>
       </c>
       <c r="S14">
-        <v>3.789852489795841E-05</v>
+        <v>0.0007627294673946422</v>
       </c>
       <c r="T14">
-        <v>3.789852489795842E-05</v>
+        <v>0.0007627294673946424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.03723833333333334</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N15">
         <v>0.111715</v>
       </c>
       <c r="O15">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146863E-05</v>
       </c>
       <c r="P15">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146865E-05</v>
       </c>
       <c r="Q15">
-        <v>1.527536144824445</v>
+        <v>2.225271392304444</v>
       </c>
       <c r="R15">
-        <v>13.74782530342</v>
+        <v>20.02744253074</v>
       </c>
       <c r="S15">
-        <v>1.400350501247077E-05</v>
+        <v>1.607635645159139E-05</v>
       </c>
       <c r="T15">
-        <v>1.400350501247077E-05</v>
+        <v>1.60763564515914E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>179.0399246666667</v>
+        <v>153.7488963333334</v>
       </c>
       <c r="N16">
-        <v>537.119774</v>
+        <v>461.2466890000001</v>
       </c>
       <c r="O16">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="P16">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="Q16">
-        <v>7344.312481626791</v>
+        <v>9187.656642589136</v>
       </c>
       <c r="R16">
-        <v>66098.81233464112</v>
+        <v>82688.90978330222</v>
       </c>
       <c r="S16">
-        <v>0.06732810676727537</v>
+        <v>0.06637574349443066</v>
       </c>
       <c r="T16">
-        <v>0.06732810676727537</v>
+        <v>0.06637574349443068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H17">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2716173333333334</v>
+        <v>0.09092633333333333</v>
       </c>
       <c r="N17">
-        <v>0.8148520000000001</v>
+        <v>0.272779</v>
       </c>
       <c r="O17">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="P17">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="Q17">
-        <v>11.14188678944178</v>
+        <v>5.433534486160444</v>
       </c>
       <c r="R17">
-        <v>100.276981104976</v>
+        <v>48.901810375444</v>
       </c>
       <c r="S17">
-        <v>0.0001021419152882051</v>
+        <v>3.925428489019961E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001021419152882051</v>
+        <v>3.925428489019962E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H18">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>49.049056</v>
+        <v>45.362591</v>
       </c>
       <c r="N18">
-        <v>147.147168</v>
+        <v>136.087773</v>
       </c>
       <c r="O18">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="P18">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="Q18">
-        <v>2012.018240420309</v>
+        <v>2710.757088119959</v>
       </c>
       <c r="R18">
-        <v>18108.16416378278</v>
+        <v>24396.81379307963</v>
       </c>
       <c r="S18">
-        <v>0.01844493671090613</v>
+        <v>0.01958372239583991</v>
       </c>
       <c r="T18">
-        <v>0.01844493671090613</v>
+        <v>0.01958372239583991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H19">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>190.7767536666667</v>
+        <v>296.3664043333334</v>
       </c>
       <c r="N19">
-        <v>572.3302610000001</v>
+        <v>889.0992130000001</v>
       </c>
       <c r="O19">
-        <v>0.455015407928672</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="P19">
-        <v>0.4550154079286721</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="Q19">
-        <v>7825.763419901608</v>
+        <v>17710.12884222616</v>
       </c>
       <c r="R19">
-        <v>70431.87077911447</v>
+        <v>159391.1595800355</v>
       </c>
       <c r="S19">
-        <v>0.07174175069330174</v>
+        <v>0.127945896871659</v>
       </c>
       <c r="T19">
-        <v>0.07174175069330176</v>
+        <v>0.127945896871659</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1007803333333333</v>
+        <v>1.766742</v>
       </c>
       <c r="N20">
-        <v>0.302341</v>
+        <v>5.300226</v>
       </c>
       <c r="O20">
-        <v>0.0002403678834108731</v>
+        <v>0.003552148420501175</v>
       </c>
       <c r="P20">
-        <v>0.0002403678834108732</v>
+        <v>0.003552148420501176</v>
       </c>
       <c r="Q20">
-        <v>0.03984810708522221</v>
+        <v>0.652789379182</v>
       </c>
       <c r="R20">
-        <v>0.3586329637669999</v>
+        <v>5.875104412638001</v>
       </c>
       <c r="S20">
-        <v>3.65302758429662E-07</v>
+        <v>4.716042629153214E-06</v>
       </c>
       <c r="T20">
-        <v>3.653027584296621E-07</v>
+        <v>4.716042629153215E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03723833333333334</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N21">
         <v>0.111715</v>
       </c>
       <c r="O21">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146863E-05</v>
       </c>
       <c r="P21">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146865E-05</v>
       </c>
       <c r="Q21">
-        <v>0.01472387563388889</v>
+        <v>0.01375910489388889</v>
       </c>
       <c r="R21">
-        <v>0.132514880705</v>
+        <v>0.123831944045</v>
       </c>
       <c r="S21">
-        <v>1.349793698438839E-07</v>
+        <v>9.940193159986977E-08</v>
       </c>
       <c r="T21">
-        <v>1.349793698438839E-07</v>
+        <v>9.940193159986979E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H22">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>179.0399246666667</v>
+        <v>153.7488963333334</v>
       </c>
       <c r="N22">
-        <v>537.119774</v>
+        <v>461.2466890000001</v>
       </c>
       <c r="O22">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="P22">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="Q22">
-        <v>70.79161037352644</v>
+        <v>56.80832095877857</v>
       </c>
       <c r="R22">
-        <v>637.1244933617379</v>
+        <v>511.2748886290071</v>
       </c>
       <c r="S22">
-        <v>0.0006489736259697385</v>
+        <v>0.000410408735001069</v>
       </c>
       <c r="T22">
-        <v>0.0006489736259697386</v>
+        <v>0.000410408735001069</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H23">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.2716173333333334</v>
+        <v>0.09092633333333333</v>
       </c>
       <c r="N23">
-        <v>0.8148520000000001</v>
+        <v>0.272779</v>
       </c>
       <c r="O23">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="P23">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="Q23">
-        <v>0.1073963165915556</v>
+        <v>0.03359615874188888</v>
       </c>
       <c r="R23">
-        <v>0.9665668493240001</v>
+        <v>0.302365428677</v>
       </c>
       <c r="S23">
-        <v>9.845428946518238E-07</v>
+        <v>2.427136866121906E-07</v>
       </c>
       <c r="T23">
-        <v>9.845428946518238E-07</v>
+        <v>2.427136866121907E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H24">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>49.049056</v>
+        <v>45.362591</v>
       </c>
       <c r="N24">
-        <v>147.147168</v>
+        <v>136.087773</v>
       </c>
       <c r="O24">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="P24">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="Q24">
-        <v>19.39378419649067</v>
+        <v>16.76091790254434</v>
       </c>
       <c r="R24">
-        <v>174.544057768416</v>
+        <v>150.848261122899</v>
       </c>
       <c r="S24">
-        <v>0.0001777901983704258</v>
+        <v>0.0001210883722268684</v>
       </c>
       <c r="T24">
-        <v>0.0001777901983704258</v>
+        <v>0.0001210883722268684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H25">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>190.7767536666667</v>
+        <v>296.3664043333334</v>
       </c>
       <c r="N25">
-        <v>572.3302610000001</v>
+        <v>889.0992130000001</v>
       </c>
       <c r="O25">
-        <v>0.455015407928672</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="P25">
-        <v>0.4550154079286721</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="Q25">
-        <v>75.43230170053411</v>
+        <v>109.5037312155132</v>
       </c>
       <c r="R25">
-        <v>678.890715304807</v>
+        <v>985.533580939619</v>
       </c>
       <c r="S25">
-        <v>0.000691516608981476</v>
+        <v>0.0007911039623696377</v>
       </c>
       <c r="T25">
-        <v>0.0006915166089814761</v>
+        <v>0.0007911039623696377</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H26">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I26">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J26">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1007803333333333</v>
+        <v>1.766742</v>
       </c>
       <c r="N26">
-        <v>0.302341</v>
+        <v>5.300226</v>
       </c>
       <c r="O26">
-        <v>0.0002403678834108731</v>
+        <v>0.003552148420501175</v>
       </c>
       <c r="P26">
-        <v>0.0002403678834108732</v>
+        <v>0.003552148420501176</v>
       </c>
       <c r="Q26">
-        <v>10.59035707808289</v>
+        <v>225.9073515086</v>
       </c>
       <c r="R26">
-        <v>95.31321370274598</v>
+        <v>2033.1661635774</v>
       </c>
       <c r="S26">
-        <v>9.708583258685047E-05</v>
+        <v>0.001632055811460473</v>
       </c>
       <c r="T26">
-        <v>9.708583258685048E-05</v>
+        <v>0.001632055811460473</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H27">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I27">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J27">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,28 +2111,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.03723833333333334</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N27">
         <v>0.111715</v>
       </c>
       <c r="O27">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146863E-05</v>
       </c>
       <c r="P27">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146865E-05</v>
       </c>
       <c r="Q27">
-        <v>3.913136957865556</v>
+        <v>4.761540314277777</v>
       </c>
       <c r="R27">
-        <v>35.21823262079</v>
+        <v>42.8538628285</v>
       </c>
       <c r="S27">
-        <v>3.58732153013981E-05</v>
+        <v>3.4399498243529E-05</v>
       </c>
       <c r="T27">
-        <v>3.58732153013981E-05</v>
+        <v>3.4399498243529E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H28">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I28">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J28">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>179.0399246666667</v>
+        <v>153.7488963333334</v>
       </c>
       <c r="N28">
-        <v>537.119774</v>
+        <v>461.2466890000001</v>
       </c>
       <c r="O28">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="P28">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="Q28">
-        <v>18814.15421778449</v>
+        <v>19659.35375285901</v>
       </c>
       <c r="R28">
-        <v>169327.3879600604</v>
+        <v>176934.1837757311</v>
       </c>
       <c r="S28">
-        <v>0.172476509827152</v>
+        <v>0.1420279699958741</v>
       </c>
       <c r="T28">
-        <v>0.172476509827152</v>
+        <v>0.1420279699958741</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H29">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I29">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J29">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.2716173333333334</v>
+        <v>0.09092633333333333</v>
       </c>
       <c r="N29">
-        <v>0.8148520000000001</v>
+        <v>0.272779</v>
       </c>
       <c r="O29">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="P29">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="Q29">
-        <v>28.54251869839023</v>
+        <v>11.62644412467778</v>
       </c>
       <c r="R29">
-        <v>256.882668285512</v>
+        <v>104.6379971221</v>
       </c>
       <c r="S29">
-        <v>0.0002616601283155785</v>
+        <v>8.399463573711316E-05</v>
       </c>
       <c r="T29">
-        <v>0.0002616601283155784</v>
+        <v>8.399463573711318E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H30">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I30">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J30">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>49.049056</v>
+        <v>45.362591</v>
       </c>
       <c r="N30">
-        <v>147.147168</v>
+        <v>136.087773</v>
       </c>
       <c r="O30">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="P30">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="Q30">
-        <v>5154.249844211178</v>
+        <v>5800.361790446967</v>
       </c>
       <c r="R30">
-        <v>46388.2485979006</v>
+        <v>52203.2561140227</v>
       </c>
       <c r="S30">
-        <v>0.04725096932958865</v>
+        <v>0.04190440950883296</v>
       </c>
       <c r="T30">
-        <v>0.04725096932958865</v>
+        <v>0.04190440950883296</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H31">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I31">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J31">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>190.7767536666667</v>
+        <v>296.3664043333334</v>
       </c>
       <c r="N31">
-        <v>572.3302610000001</v>
+        <v>889.0992130000001</v>
       </c>
       <c r="O31">
-        <v>0.455015407928672</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="P31">
-        <v>0.4550154079286721</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="Q31">
-        <v>20047.50209393492</v>
+        <v>37895.37435520875</v>
       </c>
       <c r="R31">
-        <v>180427.5188454143</v>
+        <v>341058.3691968787</v>
       </c>
       <c r="S31">
-        <v>0.1837830790525746</v>
+        <v>0.2737731443039567</v>
       </c>
       <c r="T31">
-        <v>0.1837830790525746</v>
+        <v>0.2737731443039567</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H32">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.1007803333333333</v>
+        <v>1.766742</v>
       </c>
       <c r="N32">
-        <v>0.302341</v>
+        <v>5.300226</v>
       </c>
       <c r="O32">
-        <v>0.0002403678834108731</v>
+        <v>0.003552148420501175</v>
       </c>
       <c r="P32">
-        <v>0.0002403678834108732</v>
+        <v>0.003552148420501176</v>
       </c>
       <c r="Q32">
-        <v>3.039692944082888</v>
+        <v>9.841541495846002</v>
       </c>
       <c r="R32">
-        <v>27.357236496746</v>
+        <v>88.57387346261402</v>
       </c>
       <c r="S32">
-        <v>2.786602171284712E-05</v>
+        <v>7.109970031857686E-05</v>
       </c>
       <c r="T32">
-        <v>2.786602171284713E-05</v>
+        <v>7.109970031857688E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H33">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2483,28 +2483,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M33">
-        <v>0.03723833333333334</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N33">
         <v>0.111715</v>
       </c>
       <c r="O33">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146863E-05</v>
       </c>
       <c r="P33">
-        <v>8.881593331782887E-05</v>
+        <v>7.487006418146865E-05</v>
       </c>
       <c r="Q33">
-        <v>1.123166547865556</v>
+        <v>0.2074341373761111</v>
       </c>
       <c r="R33">
-        <v>10.10849893079</v>
+        <v>1.866907236385</v>
       </c>
       <c r="S33">
-        <v>1.029649506898078E-05</v>
+        <v>1.498597044935407E-06</v>
       </c>
       <c r="T33">
-        <v>1.029649506898078E-05</v>
+        <v>1.498597044935408E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H34">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>179.0399246666667</v>
+        <v>153.7488963333334</v>
       </c>
       <c r="N34">
-        <v>537.119774</v>
+        <v>461.2466890000001</v>
       </c>
       <c r="O34">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="P34">
-        <v>0.4270222801886167</v>
+        <v>0.3091220445680519</v>
       </c>
       <c r="Q34">
-        <v>5400.124981908494</v>
+        <v>856.4499758340637</v>
       </c>
       <c r="R34">
-        <v>48601.12483717644</v>
+        <v>7708.049782506573</v>
       </c>
       <c r="S34">
-        <v>0.0495050002635552</v>
+        <v>0.006187377927061192</v>
       </c>
       <c r="T34">
-        <v>0.04950500026355521</v>
+        <v>0.006187377927061193</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H35">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.2716173333333334</v>
+        <v>0.09092633333333333</v>
       </c>
       <c r="N35">
-        <v>0.8148520000000001</v>
+        <v>0.272779</v>
       </c>
       <c r="O35">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="P35">
-        <v>0.0006478256357328872</v>
+        <v>0.0001828132411704501</v>
       </c>
       <c r="Q35">
-        <v>8.192404850390224</v>
+        <v>0.5065002601201112</v>
       </c>
       <c r="R35">
-        <v>73.73164365351201</v>
+        <v>4.558502341081001</v>
       </c>
       <c r="S35">
-        <v>7.510289218054089E-05</v>
+        <v>3.659184561790587E-06</v>
       </c>
       <c r="T35">
-        <v>7.510289218054089E-05</v>
+        <v>3.659184561790589E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H36">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>49.049056</v>
+        <v>45.362591</v>
       </c>
       <c r="N36">
-        <v>147.147168</v>
+        <v>136.087773</v>
       </c>
       <c r="O36">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="P36">
-        <v>0.1169853024302498</v>
+        <v>0.09120440673878294</v>
       </c>
       <c r="Q36">
-        <v>1479.396470579179</v>
+        <v>252.6898787064497</v>
       </c>
       <c r="R36">
-        <v>13314.56823521261</v>
+        <v>2274.208908358047</v>
       </c>
       <c r="S36">
-        <v>0.01356219030324026</v>
+        <v>0.00182554477437802</v>
       </c>
       <c r="T36">
-        <v>0.01356219030324026</v>
+        <v>0.001825544774378021</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H37">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>190.7767536666667</v>
+        <v>296.3664043333334</v>
       </c>
       <c r="N37">
-        <v>572.3302610000001</v>
+        <v>889.0992130000001</v>
       </c>
       <c r="O37">
-        <v>0.455015407928672</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="P37">
-        <v>0.4550154079286721</v>
+        <v>0.5958637169673121</v>
       </c>
       <c r="Q37">
-        <v>5754.126155720919</v>
+        <v>1650.893150341801</v>
       </c>
       <c r="R37">
-        <v>51787.13540148827</v>
+        <v>14858.03835307621</v>
       </c>
       <c r="S37">
-        <v>0.05275026370867816</v>
+        <v>0.01192679097038175</v>
       </c>
       <c r="T37">
-        <v>0.05275026370867817</v>
+        <v>0.01192679097038175</v>
       </c>
     </row>
   </sheetData>
